--- a/data/atm_operational_units.xlsx
+++ b/data/atm_operational_units.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A5DC7B-C00D-4602-9D69-7C819C3302B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3952DDC-D002-41CD-B1E4-0A42482E8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_ftn2" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$6</definedName>
+    <definedName name="_ftnref2" localSheetId="0">Sheet1!$A$12</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -109,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +672,29 @@
         <v>655</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>276</v>
+      </c>
+      <c r="E12">
+        <v>381</v>
+      </c>
+      <c r="F12">
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -673,6 +702,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7de07ceb4021a46e644f2475dce3c08e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a575a7fa9043b0502b32047f1ff6be7" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -895,15 +933,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -911,6 +940,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54067D7D-C28A-4209-86CF-353F7FAF20CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7A9A02-2406-40F7-A731-DFDF0860EC76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -929,14 +966,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54067D7D-C28A-4209-86CF-353F7FAF20CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1AA5E47-91CA-4FF6-A346-96717D8A5700}">
   <ds:schemaRefs>
